--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>Getting in contact/finding time to meet with Mike</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Connecting through to the Development server on Tourplany system</t>
+  </si>
+  <si>
+    <t>Finish Risk analysis and sent through my final proposal to Mike</t>
+  </si>
+  <si>
+    <t>Finished Proposal up to standard that I am happy</t>
+  </si>
+  <si>
+    <t>Finished Proposal up to standard that I am happy
+Itial understanding of the process involved throughout the project and what extra learning needs to be done. (c# web services)</t>
+  </si>
+  <si>
+    <t>Start detailed planning and initial diagrams
+Connect through to Dev server
+Test connections of Tourplan Webservice as well as to GIATA</t>
   </si>
 </sst>
 </file>
@@ -110,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -128,21 +149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -208,12 +214,49 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color theme="1"/>
       </top>
       <bottom/>
@@ -222,53 +265,152 @@
     <border>
       <left style="medium">
         <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,26 +692,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -618,25 +760,25 @@
       <c r="AK2" s="4"/>
     </row>
     <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17">
+      <c r="B3" s="20">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="27">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>9</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>10</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>11</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>12</v>
       </c>
       <c r="I3" s="2"/>
@@ -670,18 +812,20 @@
       <c r="AK3" s="4"/>
     </row>
     <row r="4" spans="1:37" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -713,54 +857,73 @@
       <c r="AK4" s="4"/>
     </row>
     <row r="5" spans="1:37" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:37" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:37" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="C7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:37" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -80,22 +80,47 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Connecting through to the Development server on Tourplany system</t>
-  </si>
-  <si>
-    <t>Finish Risk analysis and sent through my final proposal to Mike</t>
-  </si>
-  <si>
     <t>Finished Proposal up to standard that I am happy</t>
   </si>
   <si>
     <t>Finished Proposal up to standard that I am happy
-Itial understanding of the process involved throughout the project and what extra learning needs to be done. (c# web services)</t>
+Itial understanding of the process involved throughout the project and what extra learning needs to be done. (c# web services)
+Will have to relearn angularJS and how to utilise that</t>
+  </si>
+  <si>
+    <t>Finish Risk analysis and sent through my final proposal to Mike
+Left with lots more questions but made big advancements</t>
   </si>
   <si>
     <t>Start detailed planning and initial diagrams
 Connect through to Dev server
-Test connections of Tourplan Webservice as well as to GIATA</t>
+Test connections of Tourplan Webservice as well as to GIATA
+Understand the connection between angularjs and c#</t>
+  </si>
+  <si>
+    <t>Connecting through to the Development server on Tourplany system
+The initial understanding of angularJS</t>
+  </si>
+  <si>
+    <t>Some progress on using angularJS and how to incorperate that into my application
+Initial Understanding of the data that needs to flow between entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote in diary + Time schedule
+Had Buisness analysis that meant I had to go into ara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected to Dev server
+Beginning to understand the relationships
+Not mauch initial planning </t>
+  </si>
+  <si>
+    <t>More comprehensive planning with my general idea layed out with work componentry to say it is possible
+ Have my proposal checked off</t>
+  </si>
+  <si>
+    <t>Hard getting my head around angular JS again.
+Not a complete understanding of what is required but have enough information to get on with some work. Will meet early next week to discuss my progress</t>
   </si>
 </sst>
 </file>
@@ -357,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -411,6 +436,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +740,8 @@
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -811,7 +849,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="4"/>
     </row>
-    <row r="4" spans="1:37" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -819,9 +857,11 @@
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -864,16 +904,18 @@
         <v>12</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -881,15 +923,17 @@
         <v>14</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:37" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -897,15 +941,17 @@
         <v>13</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:37" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -913,9 +959,11 @@
         <v>16</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -121,6 +121,17 @@
   <si>
     <t>Hard getting my head around angular JS again.
 Not a complete understanding of what is required but have enough information to get on with some work. Will meet early next week to discuss my progress</t>
+  </si>
+  <si>
+    <t>Tried to figure out how to do some of the problems in project
+Started initial plan writeup for next meeting with craig</t>
+  </si>
+  <si>
+    <t>Not able to solve some problems that I had with the project</t>
+  </si>
+  <si>
+    <t>Need to become more understanding of the single page web application and how to control it.
+Complete online tutorial</t>
   </si>
 </sst>
 </file>
@@ -382,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -448,6 +459,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D17:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +755,8 @@
     <col min="2" max="2" width="51.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -862,7 +877,9 @@
       <c r="D4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -946,7 +963,9 @@
       <c r="D7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="34" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="16"/>
@@ -964,7 +983,9 @@
       <c r="D8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -127,11 +127,34 @@
 Started initial plan writeup for next meeting with craig</t>
   </si>
   <si>
-    <t>Not able to solve some problems that I had with the project</t>
-  </si>
-  <si>
     <t>Need to become more understanding of the single page web application and how to control it.
 Complete online tutorial</t>
+  </si>
+  <si>
+    <t>Finished final proposal and need to send away to respective parties
+Started reading a book to do with MVCs and c#</t>
+  </si>
+  <si>
+    <t>Proposal checked off</t>
+  </si>
+  <si>
+    <t>Not able to solve some problems that I had with the project
+Speaking up in the work environment</t>
+  </si>
+  <si>
+    <t>Started doing research as to how I should structure the project. 
+Discussions with current staff about the way they do things and when I can go talk to different people about specific problems</t>
+  </si>
+  <si>
+    <t>More understanding of SPWA
+Completed an online tutorial and started looking towards other options</t>
+  </si>
+  <si>
+    <t>Concentrating on reading and not getting off task</t>
+  </si>
+  <si>
+    <t>Continue reading and make some notes for methadology report
+Start a burndown chart of every detail/start detailed planning</t>
   </si>
 </sst>
 </file>
@@ -167,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -389,79 +412,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,41 +810,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4"/>
@@ -813,25 +880,26 @@
       <c r="AK2" s="4"/>
     </row>
     <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11">
         <v>6</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="12">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="33">
         <v>8</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="33">
         <v>9</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="33">
         <v>10</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="35">
         <v>11</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>12</v>
       </c>
       <c r="I3" s="2"/>
@@ -864,25 +932,27 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="4"/>
     </row>
-    <row r="4" spans="1:37" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:37" ht="183.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -913,87 +983,104 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:37" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="E5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:37" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:37" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:37" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:37" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="E8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="25" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week2" sheetId="3" r:id="rId2"/>
+    <sheet name="Template" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -155,6 +157,58 @@
   <si>
     <t>Continue reading and make some notes for methadology report
 Start a burndown chart of every detail/start detailed planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Book </t>
+  </si>
+  <si>
+    <t>Do tutorials in book + set up a single page application</t>
+  </si>
+  <si>
+    <t>Gained more understanding of how a SPWA works and how to properly structure it</t>
+  </si>
+  <si>
+    <t>Staying focused on reading</t>
+  </si>
+  <si>
+    <t>Completed a first structured application
+Started testing out different elements
+Finished first 3 chapters of the book</t>
+  </si>
+  <si>
+    <t>Read book + started a write up for weekly meeting with mike</t>
+  </si>
+  <si>
+    <t>Head aroundapplication
+Things started moving together</t>
+  </si>
+  <si>
+    <t>Have the XML GIATA data able to be formatted and Manipulated
+Start a propper planning diary/burndown</t>
+  </si>
+  <si>
+    <t>Googling things over and over as apposed to rembering them. Loss of time. Need to become more familiar with Visual Studio again</t>
+  </si>
+  <si>
+    <t>Got a more clear understanding of what is required from Tourplan
+The user interface is being more defined
+Access questions asked and then allowed in.
+Can now save to correct repository and set up my own webservices environment</t>
+  </si>
+  <si>
+    <t>Continued diary and thought about what to talk about in next section</t>
+  </si>
+  <si>
+    <t>XML data able to be formatted</t>
+  </si>
+  <si>
+    <t>Able to set up webservices environment 
+ Start planning properly
+ Be set up within own environement</t>
+  </si>
+  <si>
+    <t>Rembering code / efficiency of rembering code
+ Getting started on planning/not letting it just go</t>
   </si>
 </sst>
 </file>
@@ -190,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -298,19 +352,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -429,104 +470,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +866,9 @@
     <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -843,7 +889,7 @@
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -887,16 +933,16 @@
       <c r="C3" s="12">
         <v>7</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>8</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>9</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>10</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="32">
         <v>11</v>
       </c>
       <c r="H3" s="14">
@@ -942,13 +988,13 @@
       <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="13"/>
@@ -993,15 +1039,19 @@
       <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:37" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1014,16 +1064,18 @@
       <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="34" t="s">
+        <v>39</v>
+      </c>
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:37" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1036,42 +1088,48 @@
       <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="33" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:37" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="6"/>
@@ -1085,4 +1143,299 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7</v>
+      </c>
+      <c r="D2" s="30">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30">
+        <v>9</v>
+      </c>
+      <c r="F2" s="30">
+        <v>10</v>
+      </c>
+      <c r="G2" s="32">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="196.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7</v>
+      </c>
+      <c r="D2" s="30">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30">
+        <v>9</v>
+      </c>
+      <c r="F2" s="30">
+        <v>10</v>
+      </c>
+      <c r="G2" s="32">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -209,6 +209,26 @@
   <si>
     <t>Rembering code / efficiency of rembering code
  Getting started on planning/not letting it just go</t>
+  </si>
+  <si>
+    <t>Did first weekly meeting form for Mike. Continued to do some reading on MVC 5</t>
+  </si>
+  <si>
+    <t>Setup webservices environment
+Tools in my hands now</t>
+  </si>
+  <si>
+    <t>Keep testing the environment.
+Get key responses back from within my app.
+Get a logical response from webservices</t>
+  </si>
+  <si>
+    <t>Rembering all the processes</t>
+  </si>
+  <si>
+    <t>Gained access to my own WebServices environment
+Started planning / structuring of the project
+Am now linked into their repository system so can start branching my project</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1170,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,6 +1178,7 @@
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,13 +1239,15 @@
       <c r="C3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="13"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1257,9 @@
       <c r="C4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="26"/>
       <c r="F4" s="28"/>
       <c r="G4" s="19"/>
@@ -1250,13 +1275,15 @@
       <c r="C5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" s="28"/>
       <c r="F5" s="26"/>
       <c r="G5" s="34"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1293,9 @@
       <c r="C6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="9"/>
@@ -1282,7 +1311,9 @@
       <c r="C7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="35"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -211,9 +211,6 @@
  Getting started on planning/not letting it just go</t>
   </si>
   <si>
-    <t>Did first weekly meeting form for Mike. Continued to do some reading on MVC 5</t>
-  </si>
-  <si>
     <t>Setup webservices environment
 Tools in my hands now</t>
   </si>
@@ -229,6 +226,29 @@
     <t>Gained access to my own WebServices environment
 Started planning / structuring of the project
 Am now linked into their repository system so can start branching my project</t>
+  </si>
+  <si>
+    <t>Finding the line between following the structure and processes that are prescribed by Tourplan, vs what I know/can provide</t>
+  </si>
+  <si>
+    <t>Testing certain parts complete. Not all working as planned.</t>
+  </si>
+  <si>
+    <t>Create a detailed list of all information and how it will flow around my application
+Print off all relevant informaion
+ Organise a meeting between John, (Jackson via Lorna) and myself for Monday/Tuesday</t>
+  </si>
+  <si>
+    <t>Had meeting with Mike + discussed potential problems + new books.
+Handed over proposal to Mike then David.</t>
+  </si>
+  <si>
+    <t>Did first weekly meeting form for Mike. Continued to do some reading on MVC 5
+Was given first assignment for other course</t>
+  </si>
+  <si>
+    <t>Proposal signed off by industry supervisor. 
+ More planning + flow of information</t>
   </si>
 </sst>
 </file>
@@ -874,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1170,7 +1190,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1199,7 @@
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,9 +1261,11 @@
         <v>46</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="27"/>
       <c r="G3" s="13"/>
       <c r="H3" s="16"/>
@@ -1258,9 +1281,11 @@
         <v>47</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="28"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -1276,14 +1301,16 @@
         <v>48</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="F5" s="26"/>
       <c r="G5" s="34"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1294,14 +1321,16 @@
         <v>49</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="F6" s="26"/>
       <c r="G6" s="9"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
@@ -1312,9 +1341,11 @@
         <v>50</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="3" r:id="rId2"/>
-    <sheet name="Template" sheetId="2" r:id="rId3"/>
+    <sheet name="Week3" sheetId="4" r:id="rId3"/>
+    <sheet name="Template" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -249,6 +250,30 @@
   <si>
     <t>Proposal signed off by industry supervisor. 
  More planning + flow of information</t>
+  </si>
+  <si>
+    <t>Meeting with Joh Monday 3.30
+Detailed flow of information</t>
+  </si>
+  <si>
+    <t>Updated how the Phase1 may need to be structured. Have problem now with sending lots of requests. Meeting with john to confirm right course of action.</t>
+  </si>
+  <si>
+    <t>Asked people what they wanted out of QA in this organisation
+Read Mcconnell chapter on quality assurance
+Went through Microsoft tutorials and said which ones I could do (content)</t>
+  </si>
+  <si>
+    <t>Getting over a new problem and finding new solutions to it</t>
+  </si>
+  <si>
+    <t>Read up on book. Started looking for more books</t>
+  </si>
+  <si>
+    <t>Create propper burn down chart + start propper planning after Johns advice</t>
+  </si>
+  <si>
+    <t>Confidence in going into Johns office knowing what I am talking about and understanding what he is going on about</t>
   </si>
 </sst>
 </file>
@@ -894,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1189,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,6 +1225,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1266,7 +1292,9 @@
       <c r="E3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="H3" s="16"/>
     </row>
@@ -1286,7 +1314,9 @@
       <c r="E4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
@@ -1306,7 +1336,9 @@
       <c r="E5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="G5" s="34"/>
       <c r="H5" s="20"/>
     </row>
@@ -1346,7 +1378,9 @@
       <c r="E7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
@@ -1371,8 +1405,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7</v>
+      </c>
+      <c r="D2" s="30">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30">
+        <v>9</v>
+      </c>
+      <c r="F2" s="30">
+        <v>10</v>
+      </c>
+      <c r="G2" s="32">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="G17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -274,6 +274,24 @@
   </si>
   <si>
     <t>Confidence in going into Johns office knowing what I am talking about and understanding what he is going on about</t>
+  </si>
+  <si>
+    <t>Got over hurdle of being many web requests.
+Moving on with Giata connections</t>
+  </si>
+  <si>
+    <t>Running into trouble with response times from Giata. Over 1 min to get one request for 1000 giata IDs</t>
+  </si>
+  <si>
+    <t>Have an understanding/Clear path of where to go. 
+Is this project even viable</t>
+  </si>
+  <si>
+    <t>Can connect through to Giata with multiple IDs…. Caused another problem</t>
+  </si>
+  <si>
+    <t>Getting over hurdles + waiting for responces from people as to direction of project.
+Ever changing program/requirements changing</t>
   </si>
 </sst>
 </file>
@@ -919,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1214,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1405,14 +1423,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,12 +1482,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -1489,40 +1512,46 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" s="29"/>
       <c r="E5" s="28"/>
       <c r="F5" s="26"/>
       <c r="G5" s="34"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="9"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -292,6 +292,78 @@
   <si>
     <t>Getting over hurdles + waiting for responces from people as to direction of project.
 Ever changing program/requirements changing</t>
+  </si>
+  <si>
+    <t>Did document write up with further suggestions + actions that could be needed to take</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went to class - Did small write up for assignment1
+Did weekly for for Mike </t>
+  </si>
+  <si>
+    <t>Have a path to go down, looking forward to another meeting</t>
+  </si>
+  <si>
+    <t>Filling in time between meetings with people. Managed to fill time with Ara work and did not put time towards project</t>
+  </si>
+  <si>
+    <t>At least have a next meeting time</t>
+  </si>
+  <si>
+    <t>Had meeting with John, Craig and Lorna. Integrating this whole project into the overall scope of tourplans strategy.
+Started looking at how the over all structure will fit into the rest of a future project</t>
+  </si>
+  <si>
+    <t>Weekly Mike meeting:</t>
+  </si>
+  <si>
+    <t>positives out of 200 and 300 level courses</t>
+  </si>
+  <si>
+    <t>200/300 Review</t>
+  </si>
+  <si>
+    <t>Took something from the couse and applied it</t>
+  </si>
+  <si>
+    <t>What I learnt outside of the course that would have been helpful to teach in Ara</t>
+  </si>
+  <si>
+    <t>Methadology</t>
+  </si>
+  <si>
+    <t>Sumarise the theory(10 point that can be made into 100 word paragraph(1000 words total))(Learning point could be model, view, controller etc)</t>
+  </si>
+  <si>
+    <t>1000 Words on practiced theory what the industry does( can also ask what jonty did)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How it works in the real world. Do the techniques work? Are they applied? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with mike + had project class tutorial on QA </t>
+  </si>
+  <si>
+    <t>Completed meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start write up of how solution will fit into the overall schema. </t>
+  </si>
+  <si>
+    <t>Just getting my head around how the whole system will work.</t>
+  </si>
+  <si>
+    <t>Created a project overview + Visio drawing for John. Wil get feedback on style or structure of it.</t>
+  </si>
+  <si>
+    <t>Finished write up for John
+Started thinking about new questions</t>
+  </si>
+  <si>
+    <t>More Qs</t>
+  </si>
+  <si>
+    <t>Understanding how different parts interact and the point of seperating all these systems</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1421,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E9:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,6 +1504,9 @@
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="157.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1492,13 +1567,19 @@
       <c r="C3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="G3" s="13"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1506,13 +1587,17 @@
         <v>65</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>88</v>
+      </c>
       <c r="F4" s="28"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1520,9 +1605,15 @@
       <c r="C5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="34"/>
       <c r="H5" s="20"/>
     </row>
@@ -1536,13 +1627,19 @@
       <c r="C6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
@@ -1552,9 +1649,15 @@
       <c r="C7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
@@ -1569,6 +1672,47 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="3" r:id="rId2"/>
     <sheet name="Week3" sheetId="4" r:id="rId3"/>
-    <sheet name="Template" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Template" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -1495,7 +1496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1724,7 +1725,145 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7</v>
+      </c>
+      <c r="D2" s="30">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30">
+        <v>9</v>
+      </c>
+      <c r="F2" s="30">
+        <v>10</v>
+      </c>
+      <c r="G2" s="32">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="3" r:id="rId2"/>
     <sheet name="Week3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Week4" sheetId="5" r:id="rId4"/>
     <sheet name="Template" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t xml:space="preserve">Monday </t>
   </si>
@@ -365,6 +365,24 @@
   </si>
   <si>
     <t>Understanding how different parts interact and the point of seperating all these systems</t>
+  </si>
+  <si>
+    <t>Connected to NX Base code
+Looked forward to structure of overall solution
+Setup Giata repository</t>
+  </si>
+  <si>
+    <t>Did weekly round ups for Diary + Timetable
+Started assignment for other course
+Looked up past papers and highlighted what outcomes I have used in this course
+Put all noted into electronic form</t>
+  </si>
+  <si>
+    <t>More of an understanding of the NX system
+More direction of structure + where to start</t>
+  </si>
+  <si>
+    <t>Overwhelming load of information + processes</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -622,11 +640,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -727,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1724,13 +1760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,29 +1818,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C3" s="15"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="39"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="C4" s="18"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1814,32 +1855,36 @@
       <c r="D5" s="29"/>
       <c r="E5" s="28"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="26"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C6" s="23"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
